--- a/Notes/概念/收集各种概念.xlsx
+++ b/Notes/概念/收集各种概念.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/LocalFiles/ResearchFile/EntelechySystem_theory/Notes/概念/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE249BA-1884-0446-BB68-94238AE7415A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E835F41-3808-5C45-AB00-6CB064759AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5900" windowWidth="27640" windowHeight="16940" xr2:uid="{D9C96C3A-94AA-4446-BB0C-47998CD6AA09}"/>
+    <workbookView xWindow="8000" yWindow="0" windowWidth="25600" windowHeight="21000" xr2:uid="{D9C96C3A-94AA-4446-BB0C-47998CD6AA09}"/>
   </bookViews>
   <sheets>
-    <sheet name="构式词项" sheetId="1" r:id="rId1"/>
+    <sheet name="概念" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,9 +35,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>编号</t>
+  </si>
+  <si>
+    <t>词项</t>
+  </si>
+  <si>
+    <t>词项英文</t>
+  </si>
+  <si>
+    <t>词项别称</t>
+  </si>
+  <si>
+    <t>词性</t>
+  </si>
+  <si>
+    <t>概念</t>
   </si>
 </sst>
 </file>
@@ -396,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69B504F-298F-954C-926A-DBB7FC3CA782}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -407,9 +422,24 @@
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
